--- a/Data/teacher.xlsx
+++ b/Data/teacher.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\xampp\htdocs\time_table\Data\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\xampp\htdocs\t\Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0A005467-25D0-4261-ACF0-EB70BD752117}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{05635528-C727-42F9-919B-1A9E9D89E546}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2520" yWindow="450" windowWidth="14400" windowHeight="7270" xr2:uid="{96B29DB8-BA68-45CE-A344-BE2E4FE82AA6}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{96B29DB8-BA68-45CE-A344-BE2E4FE82AA6}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7" uniqueCount="7">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="10">
   <si>
     <t>Teacher Name</t>
   </si>
@@ -55,7 +55,16 @@
     <t>techr5</t>
   </si>
   <si>
-    <t>Max No of Lec</t>
+    <t>techr6</t>
+  </si>
+  <si>
+    <t>techr7</t>
+  </si>
+  <si>
+    <t>techr8</t>
+  </si>
+  <si>
+    <t>Max No of Lec (leave blank for no limit)</t>
   </si>
 </sst>
 </file>
@@ -407,16 +416,16 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AC877E26-2281-43E1-ACA9-A0199CA70576}">
-  <dimension ref="A1:B6"/>
+  <dimension ref="A1:B9"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+      <selection activeCell="B1" sqref="B1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
     <col min="1" max="1" width="13.453125" customWidth="1"/>
-    <col min="2" max="2" width="13.6328125" customWidth="1"/>
+    <col min="2" max="2" width="33.7265625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.35">
@@ -424,7 +433,7 @@
         <v>0</v>
       </c>
       <c r="B1" t="s">
-        <v>6</v>
+        <v>9</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.35">
@@ -465,6 +474,21 @@
       </c>
       <c r="B6">
         <v>5</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A7" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A8" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A9" t="s">
+        <v>8</v>
       </c>
     </row>
   </sheetData>

--- a/Data/teacher.xlsx
+++ b/Data/teacher.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25028"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25128"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\xampp\htdocs\t\Data\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\xampp\htdocs\time_table\Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{05635528-C727-42F9-919B-1A9E9D89E546}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{365CEFD0-386F-4349-ABE1-DB8DD75998E4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{96B29DB8-BA68-45CE-A344-BE2E4FE82AA6}"/>
   </bookViews>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="10">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="12">
   <si>
     <t>Teacher Name</t>
   </si>
@@ -64,7 +64,13 @@
     <t>techr8</t>
   </si>
   <si>
-    <t>Max No of Lec (leave blank for no limit)</t>
+    <t xml:space="preserve">Max No of Lec </t>
+  </si>
+  <si>
+    <t>&lt;- leave blank for no limit</t>
+  </si>
+  <si>
+    <t>&lt;- Don’t disturb the layout</t>
   </si>
 </sst>
 </file>
@@ -416,27 +422,31 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AC877E26-2281-43E1-ACA9-A0199CA70576}">
-  <dimension ref="A1:B9"/>
+  <dimension ref="A1:C9"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B1" sqref="B1"/>
+      <selection activeCell="C1" sqref="C1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
     <col min="1" max="1" width="13.453125" customWidth="1"/>
-    <col min="2" max="2" width="33.7265625" customWidth="1"/>
+    <col min="2" max="2" width="12.90625" customWidth="1"/>
+    <col min="3" max="3" width="22.90625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
         <v>0</v>
       </c>
       <c r="B1" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="C1" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
         <v>3</v>
       </c>
@@ -444,7 +454,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
         <v>4</v>
       </c>
@@ -452,7 +462,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
         <v>1</v>
       </c>
@@ -460,7 +470,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
         <v>2</v>
       </c>
@@ -468,7 +478,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A6" t="s">
         <v>5</v>
       </c>
@@ -476,17 +486,20 @@
         <v>5</v>
       </c>
     </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A7" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="C7" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A8" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A9" t="s">
         <v>8</v>
       </c>
